--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>writing score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>average</t>
         </is>
       </c>
@@ -508,7 +513,10 @@
         <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>77.33333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +552,10 @@
         <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -580,7 +591,10 @@
         <v>52</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -616,7 +630,10 @@
         <v>73</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78.33333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +669,10 @@
         <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="I6" t="n">
+        <v>74.33333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +708,10 @@
         <v>70</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -724,7 +747,10 @@
         <v>53</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52.66666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -760,7 +786,10 @@
         <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.66666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -796,7 +825,10 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -832,7 +864,10 @@
         <v>73</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="I11" t="n">
+        <v>69.66666666666667</v>
       </c>
     </row>
   </sheetData>
